--- a/01_作品/01_個人制作/02_ALTER_EGO/00_実行ファイル/data/Stage/SetStage002.xlsx
+++ b/01_作品/01_個人制作/02_ALTER_EGO/00_実行ファイル/data/Stage/SetStage002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2019\ALTER_EGO\data\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21665E-90E0-4DF5-BC67-1ACC7591CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47D10C-E3D1-4D6A-8D86-E324322B6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="2184" windowWidth="11076" windowHeight="9168" xr2:uid="{CD8E58BB-81B8-4034-8110-50BAB13E7D87}"/>
+    <workbookView xWindow="6084" yWindow="1104" windowWidth="11076" windowHeight="9168" xr2:uid="{CD8E58BB-81B8-4034-8110-50BAB13E7D87}"/>
   </bookViews>
   <sheets>
     <sheet name="SetStage002" sheetId="1" r:id="rId1"/>
@@ -38,27 +38,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>4_B_0</t>
+    <t>5_0_B</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4_R_0</t>
+    <t>4_0_B</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5_B_0</t>
+    <t>4_0_R</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5_N_0</t>
+    <t>5_0_R</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4_N_0</t>
+    <t>4_0_N</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5_R_0</t>
+    <t>5_0_N</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -131,7 +131,84 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -577,7 +654,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -729,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -791,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -824,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -933,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -989,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1024,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1062,8 +1139,8 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -1209,8 +1286,8 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
@@ -1331,55 +1408,43 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1 A2:I3 L2:XFD4 J2:K5 T2:T11 I3:I4 A4:G4 N5:XFD5 A5:I6 J6 O6 L6:N7 P6:XFD7 E6:E8 A7:E7 G7:I7 J7:K9 B8 H8:XFD8 A8:A12 I9:S9 B9:I11 T9:BM11 AQ9:XFD20 J10:S11 B12:BM12 A13:BM22 AE21:XFD21 A22:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:I3 L2:XFD4 J2:K5 T2:T11 I3:I4 A4:G4 N5:XFD5 A5:I6 J6 O6 L6:N7 P6:XFD7 E6:E8 A7:E7 G7:I7 J7:K9 B8 A8:A12 I9:S9 T9:BM11 AQ9:XFD20 J10:S11 B12:BM12 A13:BM22 AE21:XFD21 A22:XFD1048576 B9:I10 C11:I11 H8:XFD8">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
-      <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:O2 P2:XFD7 A3:M3 J3:K5 N3:O5 A4:G4 I4:M4 A5:K5 A6:J6 L6:O6 E6:E8 A7:E7 G7:N7 J7:K9 A8:B8 H8:XFD8 A9:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"4_B_0"</formula>
+  <conditionalFormatting sqref="A1:XFD1 A2:O2 P2:XFD7 A3:M3 J3:K5 N3:O5 A4:G4 I4:M4 A5:K5 A6:J6 L6:O6 E6:E8 A7:E7 G7:N7 J7:K9 A8:B8 A9:XFD10 A12:XFD1048576 A11 C11:XFD11 H8:XFD8">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"4_0_B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>"5_B_0"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"5_0_B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"4_R_0"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"4_0_R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"5_R_90"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"5_90_R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A12:XFD1048576 A11 C11:XFD11 A1:XFD10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"5_N_0"</formula>
+      <formula>"5_0_N"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"4_N_0"</formula>
+      <formula>"4_0_N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"5_R_0"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"5_0_R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
